--- a/Check List File & Table.xlsx
+++ b/Check List File & Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>List</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Inbound Reconnect - Fail</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Interface With</t>
   </si>
   <si>
@@ -116,6 +113,12 @@
   </si>
   <si>
     <t>CL_WRITEOFF</t>
+  </si>
+  <si>
+    <t>Receive Data</t>
+  </si>
+  <si>
+    <t>Integrate</t>
   </si>
 </sst>
 </file>
@@ -182,10 +185,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -492,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,271 +507,296 @@
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check List File & Table.xlsx
+++ b/Check List File & Table.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,13 +790,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check List File & Table.xlsx
+++ b/Check List File & Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>List</t>
   </si>
@@ -119,6 +119,27 @@
   </si>
   <si>
     <t>Integrate</t>
+  </si>
+  <si>
+    <t>Activity Log-SMS – Outbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL_SMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL_MESSAGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL_MESSAGE_TREATMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL_TREATMENT </t>
+  </si>
+  <si>
+    <t>Activity Log-Letter – Outbound</t>
+  </si>
+  <si>
+    <t>Activity Log-Debt - Outbound</t>
   </si>
 </sst>
 </file>
@@ -185,18 +206,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -495,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,12 +571,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -625,18 +674,18 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -659,11 +708,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -698,11 +747,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -725,11 +774,11 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -762,11 +811,11 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -788,8 +837,62 @@
         <v>32</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A13:C13"/>
@@ -799,5 +902,6 @@
     <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Check List File & Table.xlsx
+++ b/Check List File & Table.xlsx
@@ -103,9 +103,6 @@
     <t>PM_INVOICE</t>
   </si>
   <si>
-    <t>PM_BATCH_ADJ_DTL</t>
-  </si>
-  <si>
     <t>Write Off</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>Activity Log-Debt - Outbound</t>
+  </si>
+  <si>
+    <t>PM_ADJ_DTL</t>
   </si>
 </sst>
 </file>
@@ -206,10 +206,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -547,7 +547,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,19 +564,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -674,18 +674,18 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -708,11 +708,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -747,11 +747,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -774,11 +774,11 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -807,15 +807,15 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -829,63 +829,63 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
